--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Serping1-Selp.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Serping1-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,247 +525,929 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.2281609006871</v>
+        <v>22.63233633333333</v>
       </c>
       <c r="H2">
-        <v>20.2281609006871</v>
+        <v>67.897009</v>
       </c>
       <c r="I2">
-        <v>0.03395414689937931</v>
+        <v>0.0374450040810979</v>
       </c>
       <c r="J2">
-        <v>0.03395414689937931</v>
+        <v>0.0374450040810979</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.8773050391917</v>
+        <v>35.234003</v>
       </c>
       <c r="N2">
-        <v>34.8773050391917</v>
+        <v>105.702009</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9905698604484152</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9905698604484153</v>
       </c>
       <c r="Q2">
-        <v>705.5037381151146</v>
+        <v>797.4278062656756</v>
       </c>
       <c r="R2">
-        <v>705.5037381151146</v>
+        <v>7176.850256391081</v>
       </c>
       <c r="S2">
-        <v>0.03395414689937931</v>
+        <v>0.03709189246710349</v>
       </c>
       <c r="T2">
-        <v>0.03395414689937931</v>
+        <v>0.03709189246710349</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>546.963969644332</v>
+        <v>22.63233633333333</v>
       </c>
       <c r="H3">
-        <v>546.963969644332</v>
+        <v>67.897009</v>
       </c>
       <c r="I3">
-        <v>0.9181108982250809</v>
+        <v>0.0374450040810979</v>
       </c>
       <c r="J3">
-        <v>0.9181108982250809</v>
+        <v>0.0374450040810979</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>34.8773050391917</v>
+        <v>0.1289146666666666</v>
       </c>
       <c r="N3">
-        <v>34.8773050391917</v>
+        <v>0.386744</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.00362431096375152</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.00362431096375152</v>
       </c>
       <c r="Q3">
-        <v>19076.62921473255</v>
+        <v>2.917640094299555</v>
       </c>
       <c r="R3">
-        <v>19076.62921473255</v>
+        <v>26.258760848696</v>
       </c>
       <c r="S3">
-        <v>0.9181108982250809</v>
+        <v>0.0001357123388288435</v>
       </c>
       <c r="T3">
-        <v>0.9181108982250809</v>
+        <v>0.0001357123388288436</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.412687281165112</v>
+        <v>22.63233633333333</v>
       </c>
       <c r="H4">
-        <v>0.412687281165112</v>
+        <v>67.897009</v>
       </c>
       <c r="I4">
-        <v>0.0006927196514295918</v>
+        <v>0.0374450040810979</v>
       </c>
       <c r="J4">
-        <v>0.0006927196514295918</v>
+        <v>0.0374450040810979</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>34.8773050391917</v>
+        <v>0.20651</v>
       </c>
       <c r="N4">
-        <v>34.8773050391917</v>
+        <v>0.61953</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.005805828587833242</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.005805828587833243</v>
       </c>
       <c r="Q4">
-        <v>14.39342019099028</v>
+        <v>4.673803776196666</v>
       </c>
       <c r="R4">
-        <v>14.39342019099028</v>
+        <v>42.06423398577</v>
       </c>
       <c r="S4">
-        <v>0.0006927196514295918</v>
+        <v>0.0002173992751655706</v>
       </c>
       <c r="T4">
-        <v>0.0006927196514295918</v>
+        <v>0.0002173992751655707</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.1445308655031</v>
+        <v>551.8375956666666</v>
       </c>
       <c r="H5">
-        <v>28.1445308655031</v>
+        <v>1655.512787</v>
       </c>
       <c r="I5">
-        <v>0.04724223522411013</v>
+        <v>0.9130105136961889</v>
       </c>
       <c r="J5">
-        <v>0.04724223522411013</v>
+        <v>0.9130105136961888</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.8773050391917</v>
+        <v>35.234003</v>
       </c>
       <c r="N5">
-        <v>34.8773050391917</v>
+        <v>105.702009</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9905698604484152</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9905698604484153</v>
       </c>
       <c r="Q5">
-        <v>981.6053881810975</v>
+        <v>19443.44750123212</v>
       </c>
       <c r="R5">
-        <v>981.6053881810975</v>
+        <v>174991.0275110891</v>
       </c>
       <c r="S5">
-        <v>0.04724223522411013</v>
+        <v>0.9044006971399697</v>
       </c>
       <c r="T5">
-        <v>0.04724223522411013</v>
+        <v>0.9044006971399697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>551.8375956666666</v>
+      </c>
+      <c r="H6">
+        <v>1655.512787</v>
+      </c>
+      <c r="I6">
+        <v>0.9130105136961889</v>
+      </c>
+      <c r="J6">
+        <v>0.9130105136961888</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.1289146666666666</v>
+      </c>
+      <c r="N6">
+        <v>0.386744</v>
+      </c>
+      <c r="O6">
+        <v>0.00362431096375152</v>
+      </c>
+      <c r="P6">
+        <v>0.00362431096375152</v>
+      </c>
+      <c r="Q6">
+        <v>71.13995969950309</v>
+      </c>
+      <c r="R6">
+        <v>640.2596372955279</v>
+      </c>
+      <c r="S6">
+        <v>0.003309034014809505</v>
+      </c>
+      <c r="T6">
+        <v>0.003309034014809505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>551.8375956666666</v>
+      </c>
+      <c r="H7">
+        <v>1655.512787</v>
+      </c>
+      <c r="I7">
+        <v>0.9130105136961889</v>
+      </c>
+      <c r="J7">
+        <v>0.9130105136961888</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.20651</v>
+      </c>
+      <c r="N7">
+        <v>0.61953</v>
+      </c>
+      <c r="O7">
+        <v>0.005805828587833242</v>
+      </c>
+      <c r="P7">
+        <v>0.005805828587833243</v>
+      </c>
+      <c r="Q7">
+        <v>113.9599818811233</v>
+      </c>
+      <c r="R7">
+        <v>1025.63983693011</v>
+      </c>
+      <c r="S7">
+        <v>0.005300782541409648</v>
+      </c>
+      <c r="T7">
+        <v>0.005300782541409648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1065133333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.31954</v>
+      </c>
+      <c r="I8">
+        <v>0.0001762253857761838</v>
+      </c>
+      <c r="J8">
+        <v>0.0001762253857761838</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>35.234003</v>
+      </c>
+      <c r="N8">
+        <v>105.702009</v>
+      </c>
+      <c r="O8">
+        <v>0.9905698604484152</v>
+      </c>
+      <c r="P8">
+        <v>0.9905698604484153</v>
+      </c>
+      <c r="Q8">
+        <v>3.752891106206667</v>
+      </c>
+      <c r="R8">
+        <v>33.77601995586</v>
+      </c>
+      <c r="S8">
+        <v>0.0001745635557957826</v>
+      </c>
+      <c r="T8">
+        <v>0.0001745635557957825</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1065133333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.31954</v>
+      </c>
+      <c r="I9">
+        <v>0.0001762253857761838</v>
+      </c>
+      <c r="J9">
+        <v>0.0001762253857761838</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.1289146666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.386744</v>
+      </c>
+      <c r="O9">
+        <v>0.00362431096375152</v>
+      </c>
+      <c r="P9">
+        <v>0.00362431096375152</v>
+      </c>
+      <c r="Q9">
+        <v>0.01373113086222222</v>
+      </c>
+      <c r="R9">
+        <v>0.12358017776</v>
+      </c>
+      <c r="S9">
+        <v>6.386955977599642E-07</v>
+      </c>
+      <c r="T9">
+        <v>6.386955977599641E-07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1065133333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.31954</v>
+      </c>
+      <c r="I10">
+        <v>0.0001762253857761838</v>
+      </c>
+      <c r="J10">
+        <v>0.0001762253857761838</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.20651</v>
+      </c>
+      <c r="N10">
+        <v>0.61953</v>
+      </c>
+      <c r="O10">
+        <v>0.005805828587833242</v>
+      </c>
+      <c r="P10">
+        <v>0.005805828587833243</v>
+      </c>
+      <c r="Q10">
+        <v>0.02199606846666667</v>
+      </c>
+      <c r="R10">
+        <v>0.1979646162</v>
+      </c>
+      <c r="S10">
+        <v>1.02313438264131E-06</v>
+      </c>
+      <c r="T10">
+        <v>1.02313438264131E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.536369</v>
+      </c>
+      <c r="H11">
+        <v>1.609107</v>
+      </c>
+      <c r="I11">
+        <v>0.0008874178563878006</v>
+      </c>
+      <c r="J11">
+        <v>0.0008874178563878006</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>35.234003</v>
+      </c>
+      <c r="N11">
+        <v>105.702009</v>
+      </c>
+      <c r="O11">
+        <v>0.9905698604484152</v>
+      </c>
+      <c r="P11">
+        <v>0.9905698604484153</v>
+      </c>
+      <c r="Q11">
+        <v>18.898426955107</v>
+      </c>
+      <c r="R11">
+        <v>170.085842595963</v>
+      </c>
+      <c r="S11">
+        <v>0.0008790493821614954</v>
+      </c>
+      <c r="T11">
+        <v>0.0008790493821614955</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.536369</v>
+      </c>
+      <c r="H12">
+        <v>1.609107</v>
+      </c>
+      <c r="I12">
+        <v>0.0008874178563878006</v>
+      </c>
+      <c r="J12">
+        <v>0.0008874178563878006</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1289146666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.386744</v>
+      </c>
+      <c r="O12">
+        <v>0.00362431096375152</v>
+      </c>
+      <c r="P12">
+        <v>0.00362431096375152</v>
+      </c>
+      <c r="Q12">
+        <v>0.06914583084533332</v>
+      </c>
+      <c r="R12">
+        <v>0.622312477608</v>
+      </c>
+      <c r="S12">
+        <v>3.216278266335177E-06</v>
+      </c>
+      <c r="T12">
+        <v>3.216278266335178E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.536369</v>
+      </c>
+      <c r="H13">
+        <v>1.609107</v>
+      </c>
+      <c r="I13">
+        <v>0.0008874178563878006</v>
+      </c>
+      <c r="J13">
+        <v>0.0008874178563878006</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.20651</v>
+      </c>
+      <c r="N13">
+        <v>0.61953</v>
+      </c>
+      <c r="O13">
+        <v>0.005805828587833242</v>
+      </c>
+      <c r="P13">
+        <v>0.005805828587833243</v>
+      </c>
+      <c r="Q13">
+        <v>0.11076556219</v>
+      </c>
+      <c r="R13">
+        <v>0.9968900597100001</v>
+      </c>
+      <c r="S13">
+        <v>5.152195959969987E-06</v>
+      </c>
+      <c r="T13">
+        <v>5.152195959969988E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>29.30256466666667</v>
+      </c>
+      <c r="H14">
+        <v>87.90769400000001</v>
+      </c>
+      <c r="I14">
+        <v>0.04848083898054929</v>
+      </c>
+      <c r="J14">
+        <v>0.04848083898054929</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>35.234003</v>
+      </c>
+      <c r="N14">
+        <v>105.702009</v>
+      </c>
+      <c r="O14">
+        <v>0.9905698604484152</v>
+      </c>
+      <c r="P14">
+        <v>0.9905698604484153</v>
+      </c>
+      <c r="Q14">
+        <v>1032.446651373027</v>
+      </c>
+      <c r="R14">
+        <v>9292.019862357247</v>
+      </c>
+      <c r="S14">
+        <v>0.0480236579033848</v>
+      </c>
+      <c r="T14">
+        <v>0.0480236579033848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>29.30256466666667</v>
+      </c>
+      <c r="H15">
+        <v>87.90769400000001</v>
+      </c>
+      <c r="I15">
+        <v>0.04848083898054929</v>
+      </c>
+      <c r="J15">
+        <v>0.04848083898054929</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1289146666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.386744</v>
+      </c>
+      <c r="O15">
+        <v>0.00362431096375152</v>
+      </c>
+      <c r="P15">
+        <v>0.00362431096375152</v>
+      </c>
+      <c r="Q15">
+        <v>3.777530356481777</v>
+      </c>
+      <c r="R15">
+        <v>33.997773208336</v>
+      </c>
+      <c r="S15">
+        <v>0.0001757096362490769</v>
+      </c>
+      <c r="T15">
+        <v>0.0001757096362490769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>29.30256466666667</v>
+      </c>
+      <c r="H16">
+        <v>87.90769400000001</v>
+      </c>
+      <c r="I16">
+        <v>0.04848083898054929</v>
+      </c>
+      <c r="J16">
+        <v>0.04848083898054929</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.20651</v>
+      </c>
+      <c r="N16">
+        <v>0.61953</v>
+      </c>
+      <c r="O16">
+        <v>0.005805828587833242</v>
+      </c>
+      <c r="P16">
+        <v>0.005805828587833243</v>
+      </c>
+      <c r="Q16">
+        <v>6.051272629313334</v>
+      </c>
+      <c r="R16">
+        <v>54.46145366382001</v>
+      </c>
+      <c r="S16">
+        <v>0.0002814714409154133</v>
+      </c>
+      <c r="T16">
+        <v>0.0002814714409154133</v>
       </c>
     </row>
   </sheetData>
